--- a/Tutorial 2 - Vlookup, Index, Match Excel Training.xlsx
+++ b/Tutorial 2 - Vlookup, Index, Match Excel Training.xlsx
@@ -5,21 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Data Analytics Presentation\Excel\Excel Practice Files with Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Data Analytics Presentation\Excel\VBA Macros Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB30C55A-B4B3-4DFE-AE20-7073DFDEB347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA9542-D332-47B8-A302-663FB1373538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="918" activeTab="6" xr2:uid="{2B44033D-BB94-4EB5-9781-CDF8A5D19404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="918" activeTab="4" xr2:uid="{2B44033D-BB94-4EB5-9781-CDF8A5D19404}"/>
   </bookViews>
   <sheets>
     <sheet name="V-Lookup" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
     <sheet name="V-Lookup (2)" sheetId="6" r:id="rId3"/>
     <sheet name="Vlookup example" sheetId="7" r:id="rId4"/>
-    <sheet name="V-Lookup With Match" sheetId="3" r:id="rId5"/>
-    <sheet name="Match and Index" sheetId="5" r:id="rId6"/>
-    <sheet name="Xlookup" sheetId="8" r:id="rId7"/>
+    <sheet name="hlookup" sheetId="10" r:id="rId5"/>
+    <sheet name="V-Lookup With Match" sheetId="3" r:id="rId6"/>
+    <sheet name="Match and Index" sheetId="5" r:id="rId7"/>
+    <sheet name="Xlookup" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Vlookup example'!$A$1:$E$21</definedName>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="199">
   <si>
     <t>Operations</t>
   </si>
@@ -608,6 +609,57 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>Bikash Singh</t>
+  </si>
+  <si>
+    <t>Sanjoy Kumar</t>
+  </si>
+  <si>
+    <t>Rishik Sen</t>
+  </si>
+  <si>
+    <t>Surajit dasAjit Roy</t>
+  </si>
+  <si>
+    <t>Robert Peter</t>
+  </si>
+  <si>
+    <t>Rahul Singh</t>
+  </si>
+  <si>
+    <t>Debasish Dey</t>
+  </si>
+  <si>
+    <t>Manoj Patra</t>
+  </si>
+  <si>
+    <t>Supriyo Neogi</t>
+  </si>
+  <si>
+    <t>Bijay Sharma</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
   </si>
 </sst>
 </file>
@@ -617,7 +669,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,8 +721,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +775,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,10 +829,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -800,6 +878,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -807,8 +896,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="1" xr:uid="{FE5B14E4-D25A-46FB-82D8-E2F59358A870}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1710,10 +1800,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C10211-19BC-4A86-94EB-E8107DE7B321}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,6 +1883,10 @@
       <c r="H3" t="str">
         <f>IFERROR(VLOOKUP($H$2,$A$1:$E$13,MATCH(G3,$A$1:$E$1,0),0),"Not Found")</f>
         <v>Employee_4</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IFERROR(VLOOKUP($H$2,$A$1:$E$13,MATCH(H3,$A$1:$E$1,0),0),"Not Found")</f>
+        <v>Not Found</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2052,7 +2147,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2805,12 +2900,379 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28034E3-93DE-4BB1-A35A-50F1EACD54F6}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="153" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="25">
+        <v>45012</v>
+      </c>
+      <c r="C2" s="25">
+        <v>201532</v>
+      </c>
+      <c r="D2" s="25">
+        <v>20485</v>
+      </c>
+      <c r="E2" s="25">
+        <v>35960</v>
+      </c>
+      <c r="F2" s="25">
+        <v>312500</v>
+      </c>
+      <c r="G2" s="25">
+        <v>452013</v>
+      </c>
+      <c r="H2" s="25">
+        <v>48500</v>
+      </c>
+      <c r="I2" s="25">
+        <v>654186</v>
+      </c>
+      <c r="J2" s="25">
+        <v>604520</v>
+      </c>
+      <c r="K2" s="25">
+        <v>874215</v>
+      </c>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="25">
+        <v>48520</v>
+      </c>
+      <c r="C3" s="25">
+        <v>452147</v>
+      </c>
+      <c r="D3" s="25">
+        <v>86158</v>
+      </c>
+      <c r="E3" s="25">
+        <v>589721</v>
+      </c>
+      <c r="F3" s="25">
+        <v>203654</v>
+      </c>
+      <c r="G3" s="25">
+        <v>75014</v>
+      </c>
+      <c r="H3" s="25">
+        <v>304520</v>
+      </c>
+      <c r="I3" s="25">
+        <v>94201</v>
+      </c>
+      <c r="J3" s="25">
+        <v>50423</v>
+      </c>
+      <c r="K3" s="25">
+        <v>58875</v>
+      </c>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="25">
+        <v>500142</v>
+      </c>
+      <c r="C4" s="25">
+        <v>565248</v>
+      </c>
+      <c r="D4" s="25">
+        <v>50365</v>
+      </c>
+      <c r="E4" s="25">
+        <v>83015</v>
+      </c>
+      <c r="F4" s="25">
+        <v>795421</v>
+      </c>
+      <c r="G4" s="25">
+        <v>520452</v>
+      </c>
+      <c r="H4" s="25">
+        <v>85690</v>
+      </c>
+      <c r="I4" s="25">
+        <v>48759</v>
+      </c>
+      <c r="J4" s="25">
+        <v>684215</v>
+      </c>
+      <c r="K4" s="25">
+        <v>970145</v>
+      </c>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="25">
+        <v>847521</v>
+      </c>
+      <c r="C5" s="25">
+        <v>304258</v>
+      </c>
+      <c r="D5" s="25">
+        <v>387451</v>
+      </c>
+      <c r="E5" s="25">
+        <v>95230</v>
+      </c>
+      <c r="F5" s="25">
+        <v>542874</v>
+      </c>
+      <c r="G5" s="25">
+        <v>61820</v>
+      </c>
+      <c r="H5" s="25">
+        <v>87125</v>
+      </c>
+      <c r="I5" s="25">
+        <v>230458</v>
+      </c>
+      <c r="J5" s="25">
+        <v>632145</v>
+      </c>
+      <c r="K5" s="25">
+        <v>853710</v>
+      </c>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="25">
+        <v>856314</v>
+      </c>
+      <c r="C6" s="25">
+        <v>258961</v>
+      </c>
+      <c r="D6" s="25">
+        <v>204582</v>
+      </c>
+      <c r="E6" s="25">
+        <v>795612</v>
+      </c>
+      <c r="F6" s="25">
+        <v>304692</v>
+      </c>
+      <c r="G6" s="25">
+        <v>30485</v>
+      </c>
+      <c r="H6" s="25">
+        <v>75920</v>
+      </c>
+      <c r="I6" s="25">
+        <v>504287</v>
+      </c>
+      <c r="J6" s="25">
+        <v>30125</v>
+      </c>
+      <c r="K6" s="25">
+        <v>95871</v>
+      </c>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="25">
+        <v>697458</v>
+      </c>
+      <c r="C7" s="25">
+        <v>61201</v>
+      </c>
+      <c r="D7" s="25">
+        <v>52485</v>
+      </c>
+      <c r="E7" s="25">
+        <v>623458</v>
+      </c>
+      <c r="F7" s="25">
+        <v>945301</v>
+      </c>
+      <c r="G7" s="25">
+        <v>96312</v>
+      </c>
+      <c r="H7" s="25">
+        <v>485230</v>
+      </c>
+      <c r="I7" s="25">
+        <v>487560</v>
+      </c>
+      <c r="J7" s="25">
+        <v>60450</v>
+      </c>
+      <c r="K7" s="25">
+        <v>84521</v>
+      </c>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26">
+        <f>INDEX(A1:K7,MATCH(B10,A1:A7,0),MATCH(A11,A1:K1,0))</f>
+        <v>52485</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="28">
+        <f>HLOOKUP(A11,A1:K7,5,0)</f>
+        <v>387451</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>HLOOKUP(A11,A1:K7,MATCH(B10,A1:A7,0),0)</f>
+        <v>52485</v>
+      </c>
+      <c r="E12">
+        <f>MATCH(B10,A1:A7,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11" xr:uid="{6505B3F1-CB44-4A5E-8980-7ADD729DE970}">
+      <formula1>$B$1:$K$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{DAAF26DB-DECA-4119-91C5-EBCB16122537}">
+      <formula1>$A$2:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5572A95C-B633-4EB4-A6F1-194607618F4F}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3141,14 +3603,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -3186,7 +3648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0093A1-12B8-4ACD-A3A8-BF7D559C8D7B}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J17"/>
@@ -3560,10 +4022,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
@@ -3584,11 +4046,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F206840A-14DB-4FFA-992A-F7343A93A5C8}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="148" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="148" workbookViewId="0">
       <selection activeCell="F12" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
